--- a/全币种监控表.xlsx
+++ b/全币种监控表.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1662"/>
+  <dimension ref="A1:C1933"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25365,6 +25365,4071 @@
         <v>0.12586</v>
       </c>
     </row>
+    <row r="1663">
+      <c r="A1663" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:25:19</t>
+        </is>
+      </c>
+      <c r="B1663" t="inlineStr">
+        <is>
+          <t>BTC_USDT</t>
+        </is>
+      </c>
+      <c r="C1663" t="n">
+        <v>89088.8</v>
+      </c>
+    </row>
+    <row r="1664">
+      <c r="A1664" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:25:19</t>
+        </is>
+      </c>
+      <c r="B1664" t="inlineStr">
+        <is>
+          <t>ETH_USDT</t>
+        </is>
+      </c>
+      <c r="C1664" t="n">
+        <v>2976.82</v>
+      </c>
+    </row>
+    <row r="1665">
+      <c r="A1665" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:25:19</t>
+        </is>
+      </c>
+      <c r="B1665" t="inlineStr">
+        <is>
+          <t>SOL_USDT</t>
+        </is>
+      </c>
+      <c r="C1665" t="n">
+        <v>123.53</v>
+      </c>
+    </row>
+    <row r="1666">
+      <c r="A1666" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:25:19</t>
+        </is>
+      </c>
+      <c r="B1666" t="inlineStr">
+        <is>
+          <t>DOGE_USDT</t>
+        </is>
+      </c>
+      <c r="C1666" t="n">
+        <v>0.12586</v>
+      </c>
+    </row>
+    <row r="1667">
+      <c r="A1667" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:25:32</t>
+        </is>
+      </c>
+      <c r="B1667" t="inlineStr">
+        <is>
+          <t>BTC_USDT</t>
+        </is>
+      </c>
+      <c r="C1667" t="n">
+        <v>89088.8</v>
+      </c>
+    </row>
+    <row r="1668">
+      <c r="A1668" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:25:32</t>
+        </is>
+      </c>
+      <c r="B1668" t="inlineStr">
+        <is>
+          <t>ETH_USDT</t>
+        </is>
+      </c>
+      <c r="C1668" t="n">
+        <v>2976.93</v>
+      </c>
+    </row>
+    <row r="1669">
+      <c r="A1669" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:25:32</t>
+        </is>
+      </c>
+      <c r="B1669" t="inlineStr">
+        <is>
+          <t>SOL_USDT</t>
+        </is>
+      </c>
+      <c r="C1669" t="n">
+        <v>123.56</v>
+      </c>
+    </row>
+    <row r="1670">
+      <c r="A1670" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:25:32</t>
+        </is>
+      </c>
+      <c r="B1670" t="inlineStr">
+        <is>
+          <t>DOGE_USDT</t>
+        </is>
+      </c>
+      <c r="C1670" t="n">
+        <v>0.12589</v>
+      </c>
+    </row>
+    <row r="1671">
+      <c r="A1671" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:25:46</t>
+        </is>
+      </c>
+      <c r="B1671" t="inlineStr">
+        <is>
+          <t>BTC_USDT</t>
+        </is>
+      </c>
+      <c r="C1671" t="n">
+        <v>89093.10000000001</v>
+      </c>
+    </row>
+    <row r="1672">
+      <c r="A1672" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:25:46</t>
+        </is>
+      </c>
+      <c r="B1672" t="inlineStr">
+        <is>
+          <t>ETH_USDT</t>
+        </is>
+      </c>
+      <c r="C1672" t="n">
+        <v>2977.54</v>
+      </c>
+    </row>
+    <row r="1673">
+      <c r="A1673" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:25:46</t>
+        </is>
+      </c>
+      <c r="B1673" t="inlineStr">
+        <is>
+          <t>SOL_USDT</t>
+        </is>
+      </c>
+      <c r="C1673" t="n">
+        <v>123.57</v>
+      </c>
+    </row>
+    <row r="1674">
+      <c r="A1674" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:25:46</t>
+        </is>
+      </c>
+      <c r="B1674" t="inlineStr">
+        <is>
+          <t>DOGE_USDT</t>
+        </is>
+      </c>
+      <c r="C1674" t="n">
+        <v>0.12591</v>
+      </c>
+    </row>
+    <row r="1675">
+      <c r="A1675" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:26:01</t>
+        </is>
+      </c>
+      <c r="B1675" t="inlineStr">
+        <is>
+          <t>BTC_USDT</t>
+        </is>
+      </c>
+      <c r="C1675" t="n">
+        <v>89093.10000000001</v>
+      </c>
+    </row>
+    <row r="1676">
+      <c r="A1676" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:26:01</t>
+        </is>
+      </c>
+      <c r="B1676" t="inlineStr">
+        <is>
+          <t>ETH_USDT</t>
+        </is>
+      </c>
+      <c r="C1676" t="n">
+        <v>2977.68</v>
+      </c>
+    </row>
+    <row r="1677">
+      <c r="A1677" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:26:01</t>
+        </is>
+      </c>
+      <c r="B1677" t="inlineStr">
+        <is>
+          <t>SOL_USDT</t>
+        </is>
+      </c>
+      <c r="C1677" t="n">
+        <v>123.56</v>
+      </c>
+    </row>
+    <row r="1678">
+      <c r="A1678" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:26:01</t>
+        </is>
+      </c>
+      <c r="B1678" t="inlineStr">
+        <is>
+          <t>DOGE_USDT</t>
+        </is>
+      </c>
+      <c r="C1678" t="n">
+        <v>0.12591</v>
+      </c>
+    </row>
+    <row r="1679">
+      <c r="A1679" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:26:15</t>
+        </is>
+      </c>
+      <c r="B1679" t="inlineStr">
+        <is>
+          <t>BTC_USDT</t>
+        </is>
+      </c>
+      <c r="C1679" t="n">
+        <v>89088.89999999999</v>
+      </c>
+    </row>
+    <row r="1680">
+      <c r="A1680" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:26:15</t>
+        </is>
+      </c>
+      <c r="B1680" t="inlineStr">
+        <is>
+          <t>ETH_USDT</t>
+        </is>
+      </c>
+      <c r="C1680" t="n">
+        <v>2977.04</v>
+      </c>
+    </row>
+    <row r="1681">
+      <c r="A1681" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:26:15</t>
+        </is>
+      </c>
+      <c r="B1681" t="inlineStr">
+        <is>
+          <t>SOL_USDT</t>
+        </is>
+      </c>
+      <c r="C1681" t="n">
+        <v>123.5</v>
+      </c>
+    </row>
+    <row r="1682">
+      <c r="A1682" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:26:15</t>
+        </is>
+      </c>
+      <c r="B1682" t="inlineStr">
+        <is>
+          <t>DOGE_USDT</t>
+        </is>
+      </c>
+      <c r="C1682" t="n">
+        <v>0.12592</v>
+      </c>
+    </row>
+    <row r="1683">
+      <c r="A1683" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:26:29</t>
+        </is>
+      </c>
+      <c r="B1683" t="inlineStr">
+        <is>
+          <t>BTC_USDT</t>
+        </is>
+      </c>
+      <c r="C1683" t="n">
+        <v>89089</v>
+      </c>
+    </row>
+    <row r="1684">
+      <c r="A1684" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:26:29</t>
+        </is>
+      </c>
+      <c r="B1684" t="inlineStr">
+        <is>
+          <t>ETH_USDT</t>
+        </is>
+      </c>
+      <c r="C1684" t="n">
+        <v>2977.04</v>
+      </c>
+    </row>
+    <row r="1685">
+      <c r="A1685" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:26:29</t>
+        </is>
+      </c>
+      <c r="B1685" t="inlineStr">
+        <is>
+          <t>SOL_USDT</t>
+        </is>
+      </c>
+      <c r="C1685" t="n">
+        <v>123.5</v>
+      </c>
+    </row>
+    <row r="1686">
+      <c r="A1686" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:26:29</t>
+        </is>
+      </c>
+      <c r="B1686" t="inlineStr">
+        <is>
+          <t>DOGE_USDT</t>
+        </is>
+      </c>
+      <c r="C1686" t="n">
+        <v>0.12587</v>
+      </c>
+    </row>
+    <row r="1687">
+      <c r="A1687" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:26:43</t>
+        </is>
+      </c>
+      <c r="B1687" t="inlineStr">
+        <is>
+          <t>BTC_USDT</t>
+        </is>
+      </c>
+      <c r="C1687" t="n">
+        <v>89088.89999999999</v>
+      </c>
+    </row>
+    <row r="1688">
+      <c r="A1688" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:26:43</t>
+        </is>
+      </c>
+      <c r="B1688" t="inlineStr">
+        <is>
+          <t>ETH_USDT</t>
+        </is>
+      </c>
+      <c r="C1688" t="n">
+        <v>2977.04</v>
+      </c>
+    </row>
+    <row r="1689">
+      <c r="A1689" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:26:43</t>
+        </is>
+      </c>
+      <c r="B1689" t="inlineStr">
+        <is>
+          <t>SOL_USDT</t>
+        </is>
+      </c>
+      <c r="C1689" t="n">
+        <v>123.51</v>
+      </c>
+    </row>
+    <row r="1690">
+      <c r="A1690" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:26:43</t>
+        </is>
+      </c>
+      <c r="B1690" t="inlineStr">
+        <is>
+          <t>DOGE_USDT</t>
+        </is>
+      </c>
+      <c r="C1690" t="n">
+        <v>0.12589</v>
+      </c>
+    </row>
+    <row r="1691">
+      <c r="A1691" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:26:57</t>
+        </is>
+      </c>
+      <c r="B1691" t="inlineStr">
+        <is>
+          <t>BTC_USDT</t>
+        </is>
+      </c>
+      <c r="C1691" t="n">
+        <v>89088.89999999999</v>
+      </c>
+    </row>
+    <row r="1692">
+      <c r="A1692" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:26:57</t>
+        </is>
+      </c>
+      <c r="B1692" t="inlineStr">
+        <is>
+          <t>ETH_USDT</t>
+        </is>
+      </c>
+      <c r="C1692" t="n">
+        <v>2977.19</v>
+      </c>
+    </row>
+    <row r="1693">
+      <c r="A1693" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:26:57</t>
+        </is>
+      </c>
+      <c r="B1693" t="inlineStr">
+        <is>
+          <t>SOL_USDT</t>
+        </is>
+      </c>
+      <c r="C1693" t="n">
+        <v>123.52</v>
+      </c>
+    </row>
+    <row r="1694">
+      <c r="A1694" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:26:57</t>
+        </is>
+      </c>
+      <c r="B1694" t="inlineStr">
+        <is>
+          <t>DOGE_USDT</t>
+        </is>
+      </c>
+      <c r="C1694" t="n">
+        <v>0.12589</v>
+      </c>
+    </row>
+    <row r="1695">
+      <c r="A1695" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:27:11</t>
+        </is>
+      </c>
+      <c r="B1695" t="inlineStr">
+        <is>
+          <t>BTC_USDT</t>
+        </is>
+      </c>
+      <c r="C1695" t="n">
+        <v>89088.89999999999</v>
+      </c>
+    </row>
+    <row r="1696">
+      <c r="A1696" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:27:11</t>
+        </is>
+      </c>
+      <c r="B1696" t="inlineStr">
+        <is>
+          <t>ETH_USDT</t>
+        </is>
+      </c>
+      <c r="C1696" t="n">
+        <v>2977.18</v>
+      </c>
+    </row>
+    <row r="1697">
+      <c r="A1697" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:27:11</t>
+        </is>
+      </c>
+      <c r="B1697" t="inlineStr">
+        <is>
+          <t>SOL_USDT</t>
+        </is>
+      </c>
+      <c r="C1697" t="n">
+        <v>123.54</v>
+      </c>
+    </row>
+    <row r="1698">
+      <c r="A1698" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:27:11</t>
+        </is>
+      </c>
+      <c r="B1698" t="inlineStr">
+        <is>
+          <t>DOGE_USDT</t>
+        </is>
+      </c>
+      <c r="C1698" t="n">
+        <v>0.12592</v>
+      </c>
+    </row>
+    <row r="1699">
+      <c r="A1699" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:27:25</t>
+        </is>
+      </c>
+      <c r="B1699" t="inlineStr">
+        <is>
+          <t>BTC_USDT</t>
+        </is>
+      </c>
+      <c r="C1699" t="n">
+        <v>89089</v>
+      </c>
+    </row>
+    <row r="1700">
+      <c r="A1700" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:27:25</t>
+        </is>
+      </c>
+      <c r="B1700" t="inlineStr">
+        <is>
+          <t>ETH_USDT</t>
+        </is>
+      </c>
+      <c r="C1700" t="n">
+        <v>2977.18</v>
+      </c>
+    </row>
+    <row r="1701">
+      <c r="A1701" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:27:25</t>
+        </is>
+      </c>
+      <c r="B1701" t="inlineStr">
+        <is>
+          <t>SOL_USDT</t>
+        </is>
+      </c>
+      <c r="C1701" t="n">
+        <v>123.54</v>
+      </c>
+    </row>
+    <row r="1702">
+      <c r="A1702" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:27:25</t>
+        </is>
+      </c>
+      <c r="B1702" t="inlineStr">
+        <is>
+          <t>DOGE_USDT</t>
+        </is>
+      </c>
+      <c r="C1702" t="n">
+        <v>0.12592</v>
+      </c>
+    </row>
+    <row r="1703">
+      <c r="A1703" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:27:39</t>
+        </is>
+      </c>
+      <c r="B1703" t="inlineStr">
+        <is>
+          <t>BTC_USDT</t>
+        </is>
+      </c>
+      <c r="C1703" t="n">
+        <v>89088.89999999999</v>
+      </c>
+    </row>
+    <row r="1704">
+      <c r="A1704" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:27:39</t>
+        </is>
+      </c>
+      <c r="B1704" t="inlineStr">
+        <is>
+          <t>ETH_USDT</t>
+        </is>
+      </c>
+      <c r="C1704" t="n">
+        <v>2977.18</v>
+      </c>
+    </row>
+    <row r="1705">
+      <c r="A1705" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:27:39</t>
+        </is>
+      </c>
+      <c r="B1705" t="inlineStr">
+        <is>
+          <t>SOL_USDT</t>
+        </is>
+      </c>
+      <c r="C1705" t="n">
+        <v>123.5</v>
+      </c>
+    </row>
+    <row r="1706">
+      <c r="A1706" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:27:39</t>
+        </is>
+      </c>
+      <c r="B1706" t="inlineStr">
+        <is>
+          <t>DOGE_USDT</t>
+        </is>
+      </c>
+      <c r="C1706" t="n">
+        <v>0.12591</v>
+      </c>
+    </row>
+    <row r="1707">
+      <c r="A1707" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:27:52</t>
+        </is>
+      </c>
+      <c r="B1707" t="inlineStr">
+        <is>
+          <t>BTC_USDT</t>
+        </is>
+      </c>
+      <c r="C1707" t="n">
+        <v>89089</v>
+      </c>
+    </row>
+    <row r="1708">
+      <c r="A1708" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:27:52</t>
+        </is>
+      </c>
+      <c r="B1708" t="inlineStr">
+        <is>
+          <t>ETH_USDT</t>
+        </is>
+      </c>
+      <c r="C1708" t="n">
+        <v>2977.18</v>
+      </c>
+    </row>
+    <row r="1709">
+      <c r="A1709" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:27:52</t>
+        </is>
+      </c>
+      <c r="B1709" t="inlineStr">
+        <is>
+          <t>SOL_USDT</t>
+        </is>
+      </c>
+      <c r="C1709" t="n">
+        <v>123.51</v>
+      </c>
+    </row>
+    <row r="1710">
+      <c r="A1710" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:27:52</t>
+        </is>
+      </c>
+      <c r="B1710" t="inlineStr">
+        <is>
+          <t>DOGE_USDT</t>
+        </is>
+      </c>
+      <c r="C1710" t="n">
+        <v>0.12591</v>
+      </c>
+    </row>
+    <row r="1711">
+      <c r="A1711" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:28:06</t>
+        </is>
+      </c>
+      <c r="B1711" t="inlineStr">
+        <is>
+          <t>BTC_USDT</t>
+        </is>
+      </c>
+      <c r="C1711" t="n">
+        <v>89088.89999999999</v>
+      </c>
+    </row>
+    <row r="1712">
+      <c r="A1712" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:28:06</t>
+        </is>
+      </c>
+      <c r="B1712" t="inlineStr">
+        <is>
+          <t>ETH_USDT</t>
+        </is>
+      </c>
+      <c r="C1712" t="n">
+        <v>2977.04</v>
+      </c>
+    </row>
+    <row r="1713">
+      <c r="A1713" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:28:06</t>
+        </is>
+      </c>
+      <c r="B1713" t="inlineStr">
+        <is>
+          <t>SOL_USDT</t>
+        </is>
+      </c>
+      <c r="C1713" t="n">
+        <v>123.52</v>
+      </c>
+    </row>
+    <row r="1714">
+      <c r="A1714" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:28:06</t>
+        </is>
+      </c>
+      <c r="B1714" t="inlineStr">
+        <is>
+          <t>DOGE_USDT</t>
+        </is>
+      </c>
+      <c r="C1714" t="n">
+        <v>0.12591</v>
+      </c>
+    </row>
+    <row r="1715">
+      <c r="A1715" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:28:20</t>
+        </is>
+      </c>
+      <c r="B1715" t="inlineStr">
+        <is>
+          <t>BTC_USDT</t>
+        </is>
+      </c>
+      <c r="C1715" t="n">
+        <v>89089</v>
+      </c>
+    </row>
+    <row r="1716">
+      <c r="A1716" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:28:20</t>
+        </is>
+      </c>
+      <c r="B1716" t="inlineStr">
+        <is>
+          <t>ETH_USDT</t>
+        </is>
+      </c>
+      <c r="C1716" t="n">
+        <v>2977.04</v>
+      </c>
+    </row>
+    <row r="1717">
+      <c r="A1717" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:28:20</t>
+        </is>
+      </c>
+      <c r="B1717" t="inlineStr">
+        <is>
+          <t>SOL_USDT</t>
+        </is>
+      </c>
+      <c r="C1717" t="n">
+        <v>123.52</v>
+      </c>
+    </row>
+    <row r="1718">
+      <c r="A1718" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:28:20</t>
+        </is>
+      </c>
+      <c r="B1718" t="inlineStr">
+        <is>
+          <t>DOGE_USDT</t>
+        </is>
+      </c>
+      <c r="C1718" t="n">
+        <v>0.12592</v>
+      </c>
+    </row>
+    <row r="1719">
+      <c r="A1719" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:28:35</t>
+        </is>
+      </c>
+      <c r="B1719" t="inlineStr">
+        <is>
+          <t>BTC_USDT</t>
+        </is>
+      </c>
+      <c r="C1719" t="n">
+        <v>89088.89999999999</v>
+      </c>
+    </row>
+    <row r="1720">
+      <c r="A1720" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:28:35</t>
+        </is>
+      </c>
+      <c r="B1720" t="inlineStr">
+        <is>
+          <t>ETH_USDT</t>
+        </is>
+      </c>
+      <c r="C1720" t="n">
+        <v>2977.03</v>
+      </c>
+    </row>
+    <row r="1721">
+      <c r="A1721" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:28:35</t>
+        </is>
+      </c>
+      <c r="B1721" t="inlineStr">
+        <is>
+          <t>SOL_USDT</t>
+        </is>
+      </c>
+      <c r="C1721" t="n">
+        <v>123.52</v>
+      </c>
+    </row>
+    <row r="1722">
+      <c r="A1722" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:28:35</t>
+        </is>
+      </c>
+      <c r="B1722" t="inlineStr">
+        <is>
+          <t>DOGE_USDT</t>
+        </is>
+      </c>
+      <c r="C1722" t="n">
+        <v>0.1259</v>
+      </c>
+    </row>
+    <row r="1723">
+      <c r="A1723" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:28:50</t>
+        </is>
+      </c>
+      <c r="B1723" t="inlineStr">
+        <is>
+          <t>BTC_USDT</t>
+        </is>
+      </c>
+      <c r="C1723" t="n">
+        <v>89088.89999999999</v>
+      </c>
+    </row>
+    <row r="1724">
+      <c r="A1724" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:28:50</t>
+        </is>
+      </c>
+      <c r="B1724" t="inlineStr">
+        <is>
+          <t>ETH_USDT</t>
+        </is>
+      </c>
+      <c r="C1724" t="n">
+        <v>2977.04</v>
+      </c>
+    </row>
+    <row r="1725">
+      <c r="A1725" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:28:50</t>
+        </is>
+      </c>
+      <c r="B1725" t="inlineStr">
+        <is>
+          <t>SOL_USDT</t>
+        </is>
+      </c>
+      <c r="C1725" t="n">
+        <v>123.51</v>
+      </c>
+    </row>
+    <row r="1726">
+      <c r="A1726" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:28:50</t>
+        </is>
+      </c>
+      <c r="B1726" t="inlineStr">
+        <is>
+          <t>DOGE_USDT</t>
+        </is>
+      </c>
+      <c r="C1726" t="n">
+        <v>0.12589</v>
+      </c>
+    </row>
+    <row r="1727">
+      <c r="A1727" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:29:03</t>
+        </is>
+      </c>
+      <c r="B1727" t="inlineStr">
+        <is>
+          <t>BTC_USDT</t>
+        </is>
+      </c>
+      <c r="C1727" t="n">
+        <v>89097.8</v>
+      </c>
+    </row>
+    <row r="1728">
+      <c r="A1728" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:29:03</t>
+        </is>
+      </c>
+      <c r="B1728" t="inlineStr">
+        <is>
+          <t>ETH_USDT</t>
+        </is>
+      </c>
+      <c r="C1728" t="n">
+        <v>2977.03</v>
+      </c>
+    </row>
+    <row r="1729">
+      <c r="A1729" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:29:03</t>
+        </is>
+      </c>
+      <c r="B1729" t="inlineStr">
+        <is>
+          <t>SOL_USDT</t>
+        </is>
+      </c>
+      <c r="C1729" t="n">
+        <v>123.5</v>
+      </c>
+    </row>
+    <row r="1730">
+      <c r="A1730" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:29:03</t>
+        </is>
+      </c>
+      <c r="B1730" t="inlineStr">
+        <is>
+          <t>DOGE_USDT</t>
+        </is>
+      </c>
+      <c r="C1730" t="n">
+        <v>0.1259</v>
+      </c>
+    </row>
+    <row r="1731">
+      <c r="A1731" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:29:17</t>
+        </is>
+      </c>
+      <c r="B1731" t="inlineStr">
+        <is>
+          <t>BTC_USDT</t>
+        </is>
+      </c>
+      <c r="C1731" t="n">
+        <v>89089.39999999999</v>
+      </c>
+    </row>
+    <row r="1732">
+      <c r="A1732" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:29:17</t>
+        </is>
+      </c>
+      <c r="B1732" t="inlineStr">
+        <is>
+          <t>ETH_USDT</t>
+        </is>
+      </c>
+      <c r="C1732" t="n">
+        <v>2977.03</v>
+      </c>
+    </row>
+    <row r="1733">
+      <c r="A1733" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:29:17</t>
+        </is>
+      </c>
+      <c r="B1733" t="inlineStr">
+        <is>
+          <t>SOL_USDT</t>
+        </is>
+      </c>
+      <c r="C1733" t="n">
+        <v>123.5</v>
+      </c>
+    </row>
+    <row r="1734">
+      <c r="A1734" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:29:17</t>
+        </is>
+      </c>
+      <c r="B1734" t="inlineStr">
+        <is>
+          <t>DOGE_USDT</t>
+        </is>
+      </c>
+      <c r="C1734" t="n">
+        <v>0.12591</v>
+      </c>
+    </row>
+    <row r="1735">
+      <c r="A1735" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:29:31</t>
+        </is>
+      </c>
+      <c r="B1735" t="inlineStr">
+        <is>
+          <t>BTC_USDT</t>
+        </is>
+      </c>
+      <c r="C1735" t="n">
+        <v>89089.3</v>
+      </c>
+    </row>
+    <row r="1736">
+      <c r="A1736" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:29:31</t>
+        </is>
+      </c>
+      <c r="B1736" t="inlineStr">
+        <is>
+          <t>ETH_USDT</t>
+        </is>
+      </c>
+      <c r="C1736" t="n">
+        <v>2977.01</v>
+      </c>
+    </row>
+    <row r="1737">
+      <c r="A1737" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:29:31</t>
+        </is>
+      </c>
+      <c r="B1737" t="inlineStr">
+        <is>
+          <t>SOL_USDT</t>
+        </is>
+      </c>
+      <c r="C1737" t="n">
+        <v>123.51</v>
+      </c>
+    </row>
+    <row r="1738">
+      <c r="A1738" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:29:31</t>
+        </is>
+      </c>
+      <c r="B1738" t="inlineStr">
+        <is>
+          <t>DOGE_USDT</t>
+        </is>
+      </c>
+      <c r="C1738" t="n">
+        <v>0.12591</v>
+      </c>
+    </row>
+    <row r="1739">
+      <c r="A1739" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:29:45</t>
+        </is>
+      </c>
+      <c r="B1739" t="inlineStr">
+        <is>
+          <t>BTC_USDT</t>
+        </is>
+      </c>
+      <c r="C1739" t="n">
+        <v>89089.3</v>
+      </c>
+    </row>
+    <row r="1740">
+      <c r="A1740" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:29:45</t>
+        </is>
+      </c>
+      <c r="B1740" t="inlineStr">
+        <is>
+          <t>ETH_USDT</t>
+        </is>
+      </c>
+      <c r="C1740" t="n">
+        <v>2977.01</v>
+      </c>
+    </row>
+    <row r="1741">
+      <c r="A1741" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:29:45</t>
+        </is>
+      </c>
+      <c r="B1741" t="inlineStr">
+        <is>
+          <t>SOL_USDT</t>
+        </is>
+      </c>
+      <c r="C1741" t="n">
+        <v>123.54</v>
+      </c>
+    </row>
+    <row r="1742">
+      <c r="A1742" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:29:45</t>
+        </is>
+      </c>
+      <c r="B1742" t="inlineStr">
+        <is>
+          <t>DOGE_USDT</t>
+        </is>
+      </c>
+      <c r="C1742" t="n">
+        <v>0.12591</v>
+      </c>
+    </row>
+    <row r="1743">
+      <c r="A1743" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:29:59</t>
+        </is>
+      </c>
+      <c r="B1743" t="inlineStr">
+        <is>
+          <t>BTC_USDT</t>
+        </is>
+      </c>
+      <c r="C1743" t="n">
+        <v>89089.39999999999</v>
+      </c>
+    </row>
+    <row r="1744">
+      <c r="A1744" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:29:59</t>
+        </is>
+      </c>
+      <c r="B1744" t="inlineStr">
+        <is>
+          <t>ETH_USDT</t>
+        </is>
+      </c>
+      <c r="C1744" t="n">
+        <v>2976.94</v>
+      </c>
+    </row>
+    <row r="1745">
+      <c r="A1745" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:29:59</t>
+        </is>
+      </c>
+      <c r="B1745" t="inlineStr">
+        <is>
+          <t>SOL_USDT</t>
+        </is>
+      </c>
+      <c r="C1745" t="n">
+        <v>123.5</v>
+      </c>
+    </row>
+    <row r="1746">
+      <c r="A1746" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:29:59</t>
+        </is>
+      </c>
+      <c r="B1746" t="inlineStr">
+        <is>
+          <t>DOGE_USDT</t>
+        </is>
+      </c>
+      <c r="C1746" t="n">
+        <v>0.12595</v>
+      </c>
+    </row>
+    <row r="1747">
+      <c r="A1747" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:30:14</t>
+        </is>
+      </c>
+      <c r="B1747" t="inlineStr">
+        <is>
+          <t>BTC_USDT</t>
+        </is>
+      </c>
+      <c r="C1747" t="n">
+        <v>89093.8</v>
+      </c>
+    </row>
+    <row r="1748">
+      <c r="A1748" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:30:14</t>
+        </is>
+      </c>
+      <c r="B1748" t="inlineStr">
+        <is>
+          <t>ETH_USDT</t>
+        </is>
+      </c>
+      <c r="C1748" t="n">
+        <v>2976.58</v>
+      </c>
+    </row>
+    <row r="1749">
+      <c r="A1749" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:30:14</t>
+        </is>
+      </c>
+      <c r="B1749" t="inlineStr">
+        <is>
+          <t>SOL_USDT</t>
+        </is>
+      </c>
+      <c r="C1749" t="n">
+        <v>123.55</v>
+      </c>
+    </row>
+    <row r="1750">
+      <c r="A1750" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:30:14</t>
+        </is>
+      </c>
+      <c r="B1750" t="inlineStr">
+        <is>
+          <t>DOGE_USDT</t>
+        </is>
+      </c>
+      <c r="C1750" t="n">
+        <v>0.12597</v>
+      </c>
+    </row>
+    <row r="1751">
+      <c r="A1751" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:30:27</t>
+        </is>
+      </c>
+      <c r="B1751" t="inlineStr">
+        <is>
+          <t>BTC_USDT</t>
+        </is>
+      </c>
+      <c r="C1751" t="n">
+        <v>89075.8</v>
+      </c>
+    </row>
+    <row r="1752">
+      <c r="A1752" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:30:27</t>
+        </is>
+      </c>
+      <c r="B1752" t="inlineStr">
+        <is>
+          <t>ETH_USDT</t>
+        </is>
+      </c>
+      <c r="C1752" t="n">
+        <v>2975.89</v>
+      </c>
+    </row>
+    <row r="1753">
+      <c r="A1753" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:30:27</t>
+        </is>
+      </c>
+      <c r="B1753" t="inlineStr">
+        <is>
+          <t>SOL_USDT</t>
+        </is>
+      </c>
+      <c r="C1753" t="n">
+        <v>123.52</v>
+      </c>
+    </row>
+    <row r="1754">
+      <c r="A1754" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:30:27</t>
+        </is>
+      </c>
+      <c r="B1754" t="inlineStr">
+        <is>
+          <t>DOGE_USDT</t>
+        </is>
+      </c>
+      <c r="C1754" t="n">
+        <v>0.12591</v>
+      </c>
+    </row>
+    <row r="1755">
+      <c r="A1755" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:30:41</t>
+        </is>
+      </c>
+      <c r="B1755" t="inlineStr">
+        <is>
+          <t>BTC_USDT</t>
+        </is>
+      </c>
+      <c r="C1755" t="n">
+        <v>89076.7</v>
+      </c>
+    </row>
+    <row r="1756">
+      <c r="A1756" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:30:41</t>
+        </is>
+      </c>
+      <c r="B1756" t="inlineStr">
+        <is>
+          <t>ETH_USDT</t>
+        </is>
+      </c>
+      <c r="C1756" t="n">
+        <v>2975.9</v>
+      </c>
+    </row>
+    <row r="1757">
+      <c r="A1757" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:30:41</t>
+        </is>
+      </c>
+      <c r="B1757" t="inlineStr">
+        <is>
+          <t>SOL_USDT</t>
+        </is>
+      </c>
+      <c r="C1757" t="n">
+        <v>123.54</v>
+      </c>
+    </row>
+    <row r="1758">
+      <c r="A1758" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:30:41</t>
+        </is>
+      </c>
+      <c r="B1758" t="inlineStr">
+        <is>
+          <t>DOGE_USDT</t>
+        </is>
+      </c>
+      <c r="C1758" t="n">
+        <v>0.12591</v>
+      </c>
+    </row>
+    <row r="1759">
+      <c r="A1759" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:30:56</t>
+        </is>
+      </c>
+      <c r="B1759" t="inlineStr">
+        <is>
+          <t>BTC_USDT</t>
+        </is>
+      </c>
+      <c r="C1759" t="n">
+        <v>89081.3</v>
+      </c>
+    </row>
+    <row r="1760">
+      <c r="A1760" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:30:56</t>
+        </is>
+      </c>
+      <c r="B1760" t="inlineStr">
+        <is>
+          <t>ETH_USDT</t>
+        </is>
+      </c>
+      <c r="C1760" t="n">
+        <v>2975.92</v>
+      </c>
+    </row>
+    <row r="1761">
+      <c r="A1761" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:30:56</t>
+        </is>
+      </c>
+      <c r="B1761" t="inlineStr">
+        <is>
+          <t>SOL_USDT</t>
+        </is>
+      </c>
+      <c r="C1761" t="n">
+        <v>123.54</v>
+      </c>
+    </row>
+    <row r="1762">
+      <c r="A1762" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:30:56</t>
+        </is>
+      </c>
+      <c r="B1762" t="inlineStr">
+        <is>
+          <t>DOGE_USDT</t>
+        </is>
+      </c>
+      <c r="C1762" t="n">
+        <v>0.1259</v>
+      </c>
+    </row>
+    <row r="1763">
+      <c r="A1763" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:31:10</t>
+        </is>
+      </c>
+      <c r="B1763" t="inlineStr">
+        <is>
+          <t>BTC_USDT</t>
+        </is>
+      </c>
+      <c r="C1763" t="n">
+        <v>89094.2</v>
+      </c>
+    </row>
+    <row r="1764">
+      <c r="A1764" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:31:10</t>
+        </is>
+      </c>
+      <c r="B1764" t="inlineStr">
+        <is>
+          <t>ETH_USDT</t>
+        </is>
+      </c>
+      <c r="C1764" t="n">
+        <v>2976.58</v>
+      </c>
+    </row>
+    <row r="1765">
+      <c r="A1765" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:31:10</t>
+        </is>
+      </c>
+      <c r="B1765" t="inlineStr">
+        <is>
+          <t>SOL_USDT</t>
+        </is>
+      </c>
+      <c r="C1765" t="n">
+        <v>123.54</v>
+      </c>
+    </row>
+    <row r="1766">
+      <c r="A1766" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:31:10</t>
+        </is>
+      </c>
+      <c r="B1766" t="inlineStr">
+        <is>
+          <t>DOGE_USDT</t>
+        </is>
+      </c>
+      <c r="C1766" t="n">
+        <v>0.12593</v>
+      </c>
+    </row>
+    <row r="1767">
+      <c r="A1767" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:31:24</t>
+        </is>
+      </c>
+      <c r="B1767" t="inlineStr">
+        <is>
+          <t>BTC_USDT</t>
+        </is>
+      </c>
+      <c r="C1767" t="n">
+        <v>89094.3</v>
+      </c>
+    </row>
+    <row r="1768">
+      <c r="A1768" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:31:24</t>
+        </is>
+      </c>
+      <c r="B1768" t="inlineStr">
+        <is>
+          <t>ETH_USDT</t>
+        </is>
+      </c>
+      <c r="C1768" t="n">
+        <v>2976.59</v>
+      </c>
+    </row>
+    <row r="1769">
+      <c r="A1769" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:31:24</t>
+        </is>
+      </c>
+      <c r="B1769" t="inlineStr">
+        <is>
+          <t>SOL_USDT</t>
+        </is>
+      </c>
+      <c r="C1769" t="n">
+        <v>123.54</v>
+      </c>
+    </row>
+    <row r="1770">
+      <c r="A1770" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:31:24</t>
+        </is>
+      </c>
+      <c r="B1770" t="inlineStr">
+        <is>
+          <t>DOGE_USDT</t>
+        </is>
+      </c>
+      <c r="C1770" t="n">
+        <v>0.12591</v>
+      </c>
+    </row>
+    <row r="1771">
+      <c r="A1771" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:31:38</t>
+        </is>
+      </c>
+      <c r="B1771" t="inlineStr">
+        <is>
+          <t>BTC_USDT</t>
+        </is>
+      </c>
+      <c r="C1771" t="n">
+        <v>89094.2</v>
+      </c>
+    </row>
+    <row r="1772">
+      <c r="A1772" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:31:38</t>
+        </is>
+      </c>
+      <c r="B1772" t="inlineStr">
+        <is>
+          <t>ETH_USDT</t>
+        </is>
+      </c>
+      <c r="C1772" t="n">
+        <v>2976.6</v>
+      </c>
+    </row>
+    <row r="1773">
+      <c r="A1773" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:31:38</t>
+        </is>
+      </c>
+      <c r="B1773" t="inlineStr">
+        <is>
+          <t>SOL_USDT</t>
+        </is>
+      </c>
+      <c r="C1773" t="n">
+        <v>123.54</v>
+      </c>
+    </row>
+    <row r="1774">
+      <c r="A1774" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:31:38</t>
+        </is>
+      </c>
+      <c r="B1774" t="inlineStr">
+        <is>
+          <t>DOGE_USDT</t>
+        </is>
+      </c>
+      <c r="C1774" t="n">
+        <v>0.12591</v>
+      </c>
+    </row>
+    <row r="1775">
+      <c r="A1775" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:31:52</t>
+        </is>
+      </c>
+      <c r="B1775" t="inlineStr">
+        <is>
+          <t>BTC_USDT</t>
+        </is>
+      </c>
+      <c r="C1775" t="n">
+        <v>89094.3</v>
+      </c>
+    </row>
+    <row r="1776">
+      <c r="A1776" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:31:52</t>
+        </is>
+      </c>
+      <c r="B1776" t="inlineStr">
+        <is>
+          <t>ETH_USDT</t>
+        </is>
+      </c>
+      <c r="C1776" t="n">
+        <v>2976.59</v>
+      </c>
+    </row>
+    <row r="1777">
+      <c r="A1777" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:31:52</t>
+        </is>
+      </c>
+      <c r="B1777" t="inlineStr">
+        <is>
+          <t>SOL_USDT</t>
+        </is>
+      </c>
+      <c r="C1777" t="n">
+        <v>123.53</v>
+      </c>
+    </row>
+    <row r="1778">
+      <c r="A1778" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:31:52</t>
+        </is>
+      </c>
+      <c r="B1778" t="inlineStr">
+        <is>
+          <t>DOGE_USDT</t>
+        </is>
+      </c>
+      <c r="C1778" t="n">
+        <v>0.12591</v>
+      </c>
+    </row>
+    <row r="1779">
+      <c r="A1779" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:32:05</t>
+        </is>
+      </c>
+      <c r="B1779" t="inlineStr">
+        <is>
+          <t>BTC_USDT</t>
+        </is>
+      </c>
+      <c r="C1779" t="n">
+        <v>89094.2</v>
+      </c>
+    </row>
+    <row r="1780">
+      <c r="A1780" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:32:05</t>
+        </is>
+      </c>
+      <c r="B1780" t="inlineStr">
+        <is>
+          <t>ETH_USDT</t>
+        </is>
+      </c>
+      <c r="C1780" t="n">
+        <v>2976.31</v>
+      </c>
+    </row>
+    <row r="1781">
+      <c r="A1781" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:32:05</t>
+        </is>
+      </c>
+      <c r="B1781" t="inlineStr">
+        <is>
+          <t>SOL_USDT</t>
+        </is>
+      </c>
+      <c r="C1781" t="n">
+        <v>123.53</v>
+      </c>
+    </row>
+    <row r="1782">
+      <c r="A1782" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:32:05</t>
+        </is>
+      </c>
+      <c r="B1782" t="inlineStr">
+        <is>
+          <t>DOGE_USDT</t>
+        </is>
+      </c>
+      <c r="C1782" t="n">
+        <v>0.1259</v>
+      </c>
+    </row>
+    <row r="1783">
+      <c r="A1783" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:32:19</t>
+        </is>
+      </c>
+      <c r="B1783" t="inlineStr">
+        <is>
+          <t>BTC_USDT</t>
+        </is>
+      </c>
+      <c r="C1783" t="n">
+        <v>89073.2</v>
+      </c>
+    </row>
+    <row r="1784">
+      <c r="A1784" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:32:19</t>
+        </is>
+      </c>
+      <c r="B1784" t="inlineStr">
+        <is>
+          <t>ETH_USDT</t>
+        </is>
+      </c>
+      <c r="C1784" t="n">
+        <v>2974.8</v>
+      </c>
+    </row>
+    <row r="1785">
+      <c r="A1785" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:32:19</t>
+        </is>
+      </c>
+      <c r="B1785" t="inlineStr">
+        <is>
+          <t>SOL_USDT</t>
+        </is>
+      </c>
+      <c r="C1785" t="n">
+        <v>123.44</v>
+      </c>
+    </row>
+    <row r="1786">
+      <c r="A1786" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:32:19</t>
+        </is>
+      </c>
+      <c r="B1786" t="inlineStr">
+        <is>
+          <t>DOGE_USDT</t>
+        </is>
+      </c>
+      <c r="C1786" t="n">
+        <v>0.12579</v>
+      </c>
+    </row>
+    <row r="1787">
+      <c r="A1787" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:32:33</t>
+        </is>
+      </c>
+      <c r="B1787" t="inlineStr">
+        <is>
+          <t>BTC_USDT</t>
+        </is>
+      </c>
+      <c r="C1787" t="n">
+        <v>89059.8</v>
+      </c>
+    </row>
+    <row r="1788">
+      <c r="A1788" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:32:33</t>
+        </is>
+      </c>
+      <c r="B1788" t="inlineStr">
+        <is>
+          <t>ETH_USDT</t>
+        </is>
+      </c>
+      <c r="C1788" t="n">
+        <v>2974.32</v>
+      </c>
+    </row>
+    <row r="1789">
+      <c r="A1789" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:32:33</t>
+        </is>
+      </c>
+      <c r="B1789" t="inlineStr">
+        <is>
+          <t>SOL_USDT</t>
+        </is>
+      </c>
+      <c r="C1789" t="n">
+        <v>123.35</v>
+      </c>
+    </row>
+    <row r="1790">
+      <c r="A1790" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:32:33</t>
+        </is>
+      </c>
+      <c r="B1790" t="inlineStr">
+        <is>
+          <t>DOGE_USDT</t>
+        </is>
+      </c>
+      <c r="C1790" t="n">
+        <v>0.1258</v>
+      </c>
+    </row>
+    <row r="1791">
+      <c r="A1791" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:32:47</t>
+        </is>
+      </c>
+      <c r="B1791" t="inlineStr">
+        <is>
+          <t>BTC_USDT</t>
+        </is>
+      </c>
+      <c r="C1791" t="n">
+        <v>89058.7</v>
+      </c>
+    </row>
+    <row r="1792">
+      <c r="A1792" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:32:47</t>
+        </is>
+      </c>
+      <c r="B1792" t="inlineStr">
+        <is>
+          <t>ETH_USDT</t>
+        </is>
+      </c>
+      <c r="C1792" t="n">
+        <v>2975.24</v>
+      </c>
+    </row>
+    <row r="1793">
+      <c r="A1793" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:32:47</t>
+        </is>
+      </c>
+      <c r="B1793" t="inlineStr">
+        <is>
+          <t>SOL_USDT</t>
+        </is>
+      </c>
+      <c r="C1793" t="n">
+        <v>123.43</v>
+      </c>
+    </row>
+    <row r="1794">
+      <c r="A1794" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:32:47</t>
+        </is>
+      </c>
+      <c r="B1794" t="inlineStr">
+        <is>
+          <t>DOGE_USDT</t>
+        </is>
+      </c>
+      <c r="C1794" t="n">
+        <v>0.12581</v>
+      </c>
+    </row>
+    <row r="1795">
+      <c r="A1795" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:33:01</t>
+        </is>
+      </c>
+      <c r="B1795" t="inlineStr">
+        <is>
+          <t>BTC_USDT</t>
+        </is>
+      </c>
+      <c r="C1795" t="n">
+        <v>89058.7</v>
+      </c>
+    </row>
+    <row r="1796">
+      <c r="A1796" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:33:01</t>
+        </is>
+      </c>
+      <c r="B1796" t="inlineStr">
+        <is>
+          <t>ETH_USDT</t>
+        </is>
+      </c>
+      <c r="C1796" t="n">
+        <v>2975.24</v>
+      </c>
+    </row>
+    <row r="1797">
+      <c r="A1797" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:33:01</t>
+        </is>
+      </c>
+      <c r="B1797" t="inlineStr">
+        <is>
+          <t>SOL_USDT</t>
+        </is>
+      </c>
+      <c r="C1797" t="n">
+        <v>123.43</v>
+      </c>
+    </row>
+    <row r="1798">
+      <c r="A1798" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:33:01</t>
+        </is>
+      </c>
+      <c r="B1798" t="inlineStr">
+        <is>
+          <t>DOGE_USDT</t>
+        </is>
+      </c>
+      <c r="C1798" t="n">
+        <v>0.12584</v>
+      </c>
+    </row>
+    <row r="1799">
+      <c r="A1799" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:33:15</t>
+        </is>
+      </c>
+      <c r="B1799" t="inlineStr">
+        <is>
+          <t>BTC_USDT</t>
+        </is>
+      </c>
+      <c r="C1799" t="n">
+        <v>89058.60000000001</v>
+      </c>
+    </row>
+    <row r="1800">
+      <c r="A1800" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:33:15</t>
+        </is>
+      </c>
+      <c r="B1800" t="inlineStr">
+        <is>
+          <t>ETH_USDT</t>
+        </is>
+      </c>
+      <c r="C1800" t="n">
+        <v>2975.25</v>
+      </c>
+    </row>
+    <row r="1801">
+      <c r="A1801" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:33:15</t>
+        </is>
+      </c>
+      <c r="B1801" t="inlineStr">
+        <is>
+          <t>SOL_USDT</t>
+        </is>
+      </c>
+      <c r="C1801" t="n">
+        <v>123.41</v>
+      </c>
+    </row>
+    <row r="1802">
+      <c r="A1802" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:33:15</t>
+        </is>
+      </c>
+      <c r="B1802" t="inlineStr">
+        <is>
+          <t>DOGE_USDT</t>
+        </is>
+      </c>
+      <c r="C1802" t="n">
+        <v>0.12582</v>
+      </c>
+    </row>
+    <row r="1803">
+      <c r="A1803" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:33:29</t>
+        </is>
+      </c>
+      <c r="B1803" t="inlineStr">
+        <is>
+          <t>BTC_USDT</t>
+        </is>
+      </c>
+      <c r="C1803" t="n">
+        <v>89063</v>
+      </c>
+    </row>
+    <row r="1804">
+      <c r="A1804" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:33:29</t>
+        </is>
+      </c>
+      <c r="B1804" t="inlineStr">
+        <is>
+          <t>ETH_USDT</t>
+        </is>
+      </c>
+      <c r="C1804" t="n">
+        <v>2974.83</v>
+      </c>
+    </row>
+    <row r="1805">
+      <c r="A1805" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:33:29</t>
+        </is>
+      </c>
+      <c r="B1805" t="inlineStr">
+        <is>
+          <t>SOL_USDT</t>
+        </is>
+      </c>
+      <c r="C1805" t="n">
+        <v>123.41</v>
+      </c>
+    </row>
+    <row r="1806">
+      <c r="A1806" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:33:29</t>
+        </is>
+      </c>
+      <c r="B1806" t="inlineStr">
+        <is>
+          <t>DOGE_USDT</t>
+        </is>
+      </c>
+      <c r="C1806" t="n">
+        <v>0.12576</v>
+      </c>
+    </row>
+    <row r="1807">
+      <c r="A1807" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:33:43</t>
+        </is>
+      </c>
+      <c r="B1807" t="inlineStr">
+        <is>
+          <t>BTC_USDT</t>
+        </is>
+      </c>
+      <c r="C1807" t="n">
+        <v>89062.89999999999</v>
+      </c>
+    </row>
+    <row r="1808">
+      <c r="A1808" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:33:43</t>
+        </is>
+      </c>
+      <c r="B1808" t="inlineStr">
+        <is>
+          <t>ETH_USDT</t>
+        </is>
+      </c>
+      <c r="C1808" t="n">
+        <v>2974.83</v>
+      </c>
+    </row>
+    <row r="1809">
+      <c r="A1809" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:33:43</t>
+        </is>
+      </c>
+      <c r="B1809" t="inlineStr">
+        <is>
+          <t>SOL_USDT</t>
+        </is>
+      </c>
+      <c r="C1809" t="n">
+        <v>123.39</v>
+      </c>
+    </row>
+    <row r="1810">
+      <c r="A1810" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:33:43</t>
+        </is>
+      </c>
+      <c r="B1810" t="inlineStr">
+        <is>
+          <t>DOGE_USDT</t>
+        </is>
+      </c>
+      <c r="C1810" t="n">
+        <v>0.12575</v>
+      </c>
+    </row>
+    <row r="1811">
+      <c r="A1811" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:33:57</t>
+        </is>
+      </c>
+      <c r="B1811" t="inlineStr">
+        <is>
+          <t>BTC_USDT</t>
+        </is>
+      </c>
+      <c r="C1811" t="n">
+        <v>89075</v>
+      </c>
+    </row>
+    <row r="1812">
+      <c r="A1812" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:33:57</t>
+        </is>
+      </c>
+      <c r="B1812" t="inlineStr">
+        <is>
+          <t>ETH_USDT</t>
+        </is>
+      </c>
+      <c r="C1812" t="n">
+        <v>2974.9</v>
+      </c>
+    </row>
+    <row r="1813">
+      <c r="A1813" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:33:57</t>
+        </is>
+      </c>
+      <c r="B1813" t="inlineStr">
+        <is>
+          <t>SOL_USDT</t>
+        </is>
+      </c>
+      <c r="C1813" t="n">
+        <v>123.39</v>
+      </c>
+    </row>
+    <row r="1814">
+      <c r="A1814" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:33:57</t>
+        </is>
+      </c>
+      <c r="B1814" t="inlineStr">
+        <is>
+          <t>DOGE_USDT</t>
+        </is>
+      </c>
+      <c r="C1814" t="n">
+        <v>0.12577</v>
+      </c>
+    </row>
+    <row r="1815">
+      <c r="A1815" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:34:10</t>
+        </is>
+      </c>
+      <c r="B1815" t="inlineStr">
+        <is>
+          <t>BTC_USDT</t>
+        </is>
+      </c>
+      <c r="C1815" t="n">
+        <v>89075</v>
+      </c>
+    </row>
+    <row r="1816">
+      <c r="A1816" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:34:10</t>
+        </is>
+      </c>
+      <c r="B1816" t="inlineStr">
+        <is>
+          <t>ETH_USDT</t>
+        </is>
+      </c>
+      <c r="C1816" t="n">
+        <v>2974.98</v>
+      </c>
+    </row>
+    <row r="1817">
+      <c r="A1817" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:34:10</t>
+        </is>
+      </c>
+      <c r="B1817" t="inlineStr">
+        <is>
+          <t>SOL_USDT</t>
+        </is>
+      </c>
+      <c r="C1817" t="n">
+        <v>123.39</v>
+      </c>
+    </row>
+    <row r="1818">
+      <c r="A1818" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:34:10</t>
+        </is>
+      </c>
+      <c r="B1818" t="inlineStr">
+        <is>
+          <t>DOGE_USDT</t>
+        </is>
+      </c>
+      <c r="C1818" t="n">
+        <v>0.12575</v>
+      </c>
+    </row>
+    <row r="1819">
+      <c r="A1819" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:34:24</t>
+        </is>
+      </c>
+      <c r="B1819" t="inlineStr">
+        <is>
+          <t>BTC_USDT</t>
+        </is>
+      </c>
+      <c r="C1819" t="n">
+        <v>89087.60000000001</v>
+      </c>
+    </row>
+    <row r="1820">
+      <c r="A1820" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:34:24</t>
+        </is>
+      </c>
+      <c r="B1820" t="inlineStr">
+        <is>
+          <t>ETH_USDT</t>
+        </is>
+      </c>
+      <c r="C1820" t="n">
+        <v>2975.12</v>
+      </c>
+    </row>
+    <row r="1821">
+      <c r="A1821" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:34:24</t>
+        </is>
+      </c>
+      <c r="B1821" t="inlineStr">
+        <is>
+          <t>SOL_USDT</t>
+        </is>
+      </c>
+      <c r="C1821" t="n">
+        <v>123.44</v>
+      </c>
+    </row>
+    <row r="1822">
+      <c r="A1822" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:34:24</t>
+        </is>
+      </c>
+      <c r="B1822" t="inlineStr">
+        <is>
+          <t>DOGE_USDT</t>
+        </is>
+      </c>
+      <c r="C1822" t="n">
+        <v>0.12578</v>
+      </c>
+    </row>
+    <row r="1823">
+      <c r="A1823" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:34:38</t>
+        </is>
+      </c>
+      <c r="B1823" t="inlineStr">
+        <is>
+          <t>BTC_USDT</t>
+        </is>
+      </c>
+      <c r="C1823" t="n">
+        <v>89090.3</v>
+      </c>
+    </row>
+    <row r="1824">
+      <c r="A1824" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:34:38</t>
+        </is>
+      </c>
+      <c r="B1824" t="inlineStr">
+        <is>
+          <t>ETH_USDT</t>
+        </is>
+      </c>
+      <c r="C1824" t="n">
+        <v>2974.89</v>
+      </c>
+    </row>
+    <row r="1825">
+      <c r="A1825" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:34:38</t>
+        </is>
+      </c>
+      <c r="B1825" t="inlineStr">
+        <is>
+          <t>SOL_USDT</t>
+        </is>
+      </c>
+      <c r="C1825" t="n">
+        <v>123.45</v>
+      </c>
+    </row>
+    <row r="1826">
+      <c r="A1826" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:34:38</t>
+        </is>
+      </c>
+      <c r="B1826" t="inlineStr">
+        <is>
+          <t>DOGE_USDT</t>
+        </is>
+      </c>
+      <c r="C1826" t="n">
+        <v>0.1258</v>
+      </c>
+    </row>
+    <row r="1827">
+      <c r="A1827" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:34:52</t>
+        </is>
+      </c>
+      <c r="B1827" t="inlineStr">
+        <is>
+          <t>BTC_USDT</t>
+        </is>
+      </c>
+      <c r="C1827" t="n">
+        <v>89090.2</v>
+      </c>
+    </row>
+    <row r="1828">
+      <c r="A1828" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:34:52</t>
+        </is>
+      </c>
+      <c r="B1828" t="inlineStr">
+        <is>
+          <t>ETH_USDT</t>
+        </is>
+      </c>
+      <c r="C1828" t="n">
+        <v>2974.88</v>
+      </c>
+    </row>
+    <row r="1829">
+      <c r="A1829" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:34:52</t>
+        </is>
+      </c>
+      <c r="B1829" t="inlineStr">
+        <is>
+          <t>SOL_USDT</t>
+        </is>
+      </c>
+      <c r="C1829" t="n">
+        <v>123.44</v>
+      </c>
+    </row>
+    <row r="1830">
+      <c r="A1830" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:34:52</t>
+        </is>
+      </c>
+      <c r="B1830" t="inlineStr">
+        <is>
+          <t>DOGE_USDT</t>
+        </is>
+      </c>
+      <c r="C1830" t="n">
+        <v>0.12576</v>
+      </c>
+    </row>
+    <row r="1831">
+      <c r="A1831" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:35:06</t>
+        </is>
+      </c>
+      <c r="B1831" t="inlineStr">
+        <is>
+          <t>BTC_USDT</t>
+        </is>
+      </c>
+      <c r="C1831" t="n">
+        <v>89090.3</v>
+      </c>
+    </row>
+    <row r="1832">
+      <c r="A1832" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:35:06</t>
+        </is>
+      </c>
+      <c r="B1832" t="inlineStr">
+        <is>
+          <t>ETH_USDT</t>
+        </is>
+      </c>
+      <c r="C1832" t="n">
+        <v>2974.54</v>
+      </c>
+    </row>
+    <row r="1833">
+      <c r="A1833" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:35:06</t>
+        </is>
+      </c>
+      <c r="B1833" t="inlineStr">
+        <is>
+          <t>SOL_USDT</t>
+        </is>
+      </c>
+      <c r="C1833" t="n">
+        <v>123.42</v>
+      </c>
+    </row>
+    <row r="1834">
+      <c r="A1834" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:35:06</t>
+        </is>
+      </c>
+      <c r="B1834" t="inlineStr">
+        <is>
+          <t>DOGE_USDT</t>
+        </is>
+      </c>
+      <c r="C1834" t="n">
+        <v>0.12575</v>
+      </c>
+    </row>
+    <row r="1835">
+      <c r="A1835" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:35:20</t>
+        </is>
+      </c>
+      <c r="B1835" t="inlineStr">
+        <is>
+          <t>BTC_USDT</t>
+        </is>
+      </c>
+      <c r="C1835" t="n">
+        <v>89090.2</v>
+      </c>
+    </row>
+    <row r="1836">
+      <c r="A1836" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:35:20</t>
+        </is>
+      </c>
+      <c r="B1836" t="inlineStr">
+        <is>
+          <t>ETH_USDT</t>
+        </is>
+      </c>
+      <c r="C1836" t="n">
+        <v>2974.54</v>
+      </c>
+    </row>
+    <row r="1837">
+      <c r="A1837" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:35:20</t>
+        </is>
+      </c>
+      <c r="B1837" t="inlineStr">
+        <is>
+          <t>SOL_USDT</t>
+        </is>
+      </c>
+      <c r="C1837" t="n">
+        <v>123.42</v>
+      </c>
+    </row>
+    <row r="1838">
+      <c r="A1838" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:35:20</t>
+        </is>
+      </c>
+      <c r="B1838" t="inlineStr">
+        <is>
+          <t>DOGE_USDT</t>
+        </is>
+      </c>
+      <c r="C1838" t="n">
+        <v>0.12573</v>
+      </c>
+    </row>
+    <row r="1839">
+      <c r="A1839" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:35:34</t>
+        </is>
+      </c>
+      <c r="B1839" t="inlineStr">
+        <is>
+          <t>BTC_USDT</t>
+        </is>
+      </c>
+      <c r="C1839" t="n">
+        <v>89085.8</v>
+      </c>
+    </row>
+    <row r="1840">
+      <c r="A1840" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:35:34</t>
+        </is>
+      </c>
+      <c r="B1840" t="inlineStr">
+        <is>
+          <t>ETH_USDT</t>
+        </is>
+      </c>
+      <c r="C1840" t="n">
+        <v>2974.1</v>
+      </c>
+    </row>
+    <row r="1841">
+      <c r="A1841" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:35:34</t>
+        </is>
+      </c>
+      <c r="B1841" t="inlineStr">
+        <is>
+          <t>SOL_USDT</t>
+        </is>
+      </c>
+      <c r="C1841" t="n">
+        <v>123.41</v>
+      </c>
+    </row>
+    <row r="1842">
+      <c r="A1842" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:35:34</t>
+        </is>
+      </c>
+      <c r="B1842" t="inlineStr">
+        <is>
+          <t>DOGE_USDT</t>
+        </is>
+      </c>
+      <c r="C1842" t="n">
+        <v>0.12575</v>
+      </c>
+    </row>
+    <row r="1843">
+      <c r="A1843" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:35:48</t>
+        </is>
+      </c>
+      <c r="B1843" t="inlineStr">
+        <is>
+          <t>BTC_USDT</t>
+        </is>
+      </c>
+      <c r="C1843" t="n">
+        <v>89085.8</v>
+      </c>
+    </row>
+    <row r="1844">
+      <c r="A1844" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:35:48</t>
+        </is>
+      </c>
+      <c r="B1844" t="inlineStr">
+        <is>
+          <t>ETH_USDT</t>
+        </is>
+      </c>
+      <c r="C1844" t="n">
+        <v>2974.72</v>
+      </c>
+    </row>
+    <row r="1845">
+      <c r="A1845" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:35:48</t>
+        </is>
+      </c>
+      <c r="B1845" t="inlineStr">
+        <is>
+          <t>SOL_USDT</t>
+        </is>
+      </c>
+      <c r="C1845" t="n">
+        <v>123.44</v>
+      </c>
+    </row>
+    <row r="1846">
+      <c r="A1846" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:35:48</t>
+        </is>
+      </c>
+      <c r="B1846" t="inlineStr">
+        <is>
+          <t>DOGE_USDT</t>
+        </is>
+      </c>
+      <c r="C1846" t="n">
+        <v>0.12575</v>
+      </c>
+    </row>
+    <row r="1847">
+      <c r="A1847" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:36:02</t>
+        </is>
+      </c>
+      <c r="B1847" t="inlineStr">
+        <is>
+          <t>BTC_USDT</t>
+        </is>
+      </c>
+      <c r="C1847" t="n">
+        <v>89085.89999999999</v>
+      </c>
+    </row>
+    <row r="1848">
+      <c r="A1848" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:36:02</t>
+        </is>
+      </c>
+      <c r="B1848" t="inlineStr">
+        <is>
+          <t>ETH_USDT</t>
+        </is>
+      </c>
+      <c r="C1848" t="n">
+        <v>2974.72</v>
+      </c>
+    </row>
+    <row r="1849">
+      <c r="A1849" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:36:02</t>
+        </is>
+      </c>
+      <c r="B1849" t="inlineStr">
+        <is>
+          <t>SOL_USDT</t>
+        </is>
+      </c>
+      <c r="C1849" t="n">
+        <v>123.45</v>
+      </c>
+    </row>
+    <row r="1850">
+      <c r="A1850" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:36:02</t>
+        </is>
+      </c>
+      <c r="B1850" t="inlineStr">
+        <is>
+          <t>DOGE_USDT</t>
+        </is>
+      </c>
+      <c r="C1850" t="n">
+        <v>0.12576</v>
+      </c>
+    </row>
+    <row r="1851">
+      <c r="A1851" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:36:16</t>
+        </is>
+      </c>
+      <c r="B1851" t="inlineStr">
+        <is>
+          <t>BTC_USDT</t>
+        </is>
+      </c>
+      <c r="C1851" t="n">
+        <v>89085.89999999999</v>
+      </c>
+    </row>
+    <row r="1852">
+      <c r="A1852" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:36:16</t>
+        </is>
+      </c>
+      <c r="B1852" t="inlineStr">
+        <is>
+          <t>ETH_USDT</t>
+        </is>
+      </c>
+      <c r="C1852" t="n">
+        <v>2974.72</v>
+      </c>
+    </row>
+    <row r="1853">
+      <c r="A1853" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:36:16</t>
+        </is>
+      </c>
+      <c r="B1853" t="inlineStr">
+        <is>
+          <t>SOL_USDT</t>
+        </is>
+      </c>
+      <c r="C1853" t="n">
+        <v>123.44</v>
+      </c>
+    </row>
+    <row r="1854">
+      <c r="A1854" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:36:16</t>
+        </is>
+      </c>
+      <c r="B1854" t="inlineStr">
+        <is>
+          <t>DOGE_USDT</t>
+        </is>
+      </c>
+      <c r="C1854" t="n">
+        <v>0.12575</v>
+      </c>
+    </row>
+    <row r="1855">
+      <c r="A1855" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:36:29</t>
+        </is>
+      </c>
+      <c r="B1855" t="inlineStr">
+        <is>
+          <t>BTC_USDT</t>
+        </is>
+      </c>
+      <c r="C1855" t="n">
+        <v>89085.8</v>
+      </c>
+    </row>
+    <row r="1856">
+      <c r="A1856" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:36:29</t>
+        </is>
+      </c>
+      <c r="B1856" t="inlineStr">
+        <is>
+          <t>ETH_USDT</t>
+        </is>
+      </c>
+      <c r="C1856" t="n">
+        <v>2974.72</v>
+      </c>
+    </row>
+    <row r="1857">
+      <c r="A1857" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:36:29</t>
+        </is>
+      </c>
+      <c r="B1857" t="inlineStr">
+        <is>
+          <t>SOL_USDT</t>
+        </is>
+      </c>
+      <c r="C1857" t="n">
+        <v>123.44</v>
+      </c>
+    </row>
+    <row r="1858">
+      <c r="A1858" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:36:29</t>
+        </is>
+      </c>
+      <c r="B1858" t="inlineStr">
+        <is>
+          <t>DOGE_USDT</t>
+        </is>
+      </c>
+      <c r="C1858" t="n">
+        <v>0.12575</v>
+      </c>
+    </row>
+    <row r="1859">
+      <c r="A1859" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:36:43</t>
+        </is>
+      </c>
+      <c r="B1859" t="inlineStr">
+        <is>
+          <t>BTC_USDT</t>
+        </is>
+      </c>
+      <c r="C1859" t="n">
+        <v>89084</v>
+      </c>
+    </row>
+    <row r="1860">
+      <c r="A1860" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:36:43</t>
+        </is>
+      </c>
+      <c r="B1860" t="inlineStr">
+        <is>
+          <t>ETH_USDT</t>
+        </is>
+      </c>
+      <c r="C1860" t="n">
+        <v>2974.51</v>
+      </c>
+    </row>
+    <row r="1861">
+      <c r="A1861" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:36:43</t>
+        </is>
+      </c>
+      <c r="B1861" t="inlineStr">
+        <is>
+          <t>SOL_USDT</t>
+        </is>
+      </c>
+      <c r="C1861" t="n">
+        <v>123.43</v>
+      </c>
+    </row>
+    <row r="1862">
+      <c r="A1862" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:36:43</t>
+        </is>
+      </c>
+      <c r="B1862" t="inlineStr">
+        <is>
+          <t>DOGE_USDT</t>
+        </is>
+      </c>
+      <c r="C1862" t="n">
+        <v>0.12574</v>
+      </c>
+    </row>
+    <row r="1863">
+      <c r="A1863" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:36:57</t>
+        </is>
+      </c>
+      <c r="B1863" t="inlineStr">
+        <is>
+          <t>BTC_USDT</t>
+        </is>
+      </c>
+      <c r="C1863" t="n">
+        <v>89064.10000000001</v>
+      </c>
+    </row>
+    <row r="1864">
+      <c r="A1864" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:36:57</t>
+        </is>
+      </c>
+      <c r="B1864" t="inlineStr">
+        <is>
+          <t>ETH_USDT</t>
+        </is>
+      </c>
+      <c r="C1864" t="n">
+        <v>2974.49</v>
+      </c>
+    </row>
+    <row r="1865">
+      <c r="A1865" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:36:57</t>
+        </is>
+      </c>
+      <c r="B1865" t="inlineStr">
+        <is>
+          <t>SOL_USDT</t>
+        </is>
+      </c>
+      <c r="C1865" t="n">
+        <v>123.41</v>
+      </c>
+    </row>
+    <row r="1866">
+      <c r="A1866" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:36:57</t>
+        </is>
+      </c>
+      <c r="B1866" t="inlineStr">
+        <is>
+          <t>DOGE_USDT</t>
+        </is>
+      </c>
+      <c r="C1866" t="n">
+        <v>0.12574</v>
+      </c>
+    </row>
+    <row r="1867">
+      <c r="A1867" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:37:11</t>
+        </is>
+      </c>
+      <c r="B1867" t="inlineStr">
+        <is>
+          <t>BTC_USDT</t>
+        </is>
+      </c>
+      <c r="C1867" t="n">
+        <v>89068.8</v>
+      </c>
+    </row>
+    <row r="1868">
+      <c r="A1868" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:37:11</t>
+        </is>
+      </c>
+      <c r="B1868" t="inlineStr">
+        <is>
+          <t>ETH_USDT</t>
+        </is>
+      </c>
+      <c r="C1868" t="n">
+        <v>2974.36</v>
+      </c>
+    </row>
+    <row r="1869">
+      <c r="A1869" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:37:11</t>
+        </is>
+      </c>
+      <c r="B1869" t="inlineStr">
+        <is>
+          <t>SOL_USDT</t>
+        </is>
+      </c>
+      <c r="C1869" t="n">
+        <v>123.42</v>
+      </c>
+    </row>
+    <row r="1870">
+      <c r="A1870" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:37:11</t>
+        </is>
+      </c>
+      <c r="B1870" t="inlineStr">
+        <is>
+          <t>DOGE_USDT</t>
+        </is>
+      </c>
+      <c r="C1870" t="n">
+        <v>0.12573</v>
+      </c>
+    </row>
+    <row r="1871">
+      <c r="A1871" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:37:25</t>
+        </is>
+      </c>
+      <c r="B1871" t="inlineStr">
+        <is>
+          <t>BTC_USDT</t>
+        </is>
+      </c>
+      <c r="C1871" t="n">
+        <v>89068.8</v>
+      </c>
+    </row>
+    <row r="1872">
+      <c r="A1872" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:37:25</t>
+        </is>
+      </c>
+      <c r="B1872" t="inlineStr">
+        <is>
+          <t>ETH_USDT</t>
+        </is>
+      </c>
+      <c r="C1872" t="n">
+        <v>2974.36</v>
+      </c>
+    </row>
+    <row r="1873">
+      <c r="A1873" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:37:25</t>
+        </is>
+      </c>
+      <c r="B1873" t="inlineStr">
+        <is>
+          <t>SOL_USDT</t>
+        </is>
+      </c>
+      <c r="C1873" t="n">
+        <v>123.43</v>
+      </c>
+    </row>
+    <row r="1874">
+      <c r="A1874" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:37:25</t>
+        </is>
+      </c>
+      <c r="B1874" t="inlineStr">
+        <is>
+          <t>DOGE_USDT</t>
+        </is>
+      </c>
+      <c r="C1874" t="n">
+        <v>0.12572</v>
+      </c>
+    </row>
+    <row r="1875">
+      <c r="A1875" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:37:39</t>
+        </is>
+      </c>
+      <c r="B1875" t="inlineStr">
+        <is>
+          <t>BTC_USDT</t>
+        </is>
+      </c>
+      <c r="C1875" t="n">
+        <v>89068.8</v>
+      </c>
+    </row>
+    <row r="1876">
+      <c r="A1876" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:37:39</t>
+        </is>
+      </c>
+      <c r="B1876" t="inlineStr">
+        <is>
+          <t>ETH_USDT</t>
+        </is>
+      </c>
+      <c r="C1876" t="n">
+        <v>2974.35</v>
+      </c>
+    </row>
+    <row r="1877">
+      <c r="A1877" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:37:39</t>
+        </is>
+      </c>
+      <c r="B1877" t="inlineStr">
+        <is>
+          <t>SOL_USDT</t>
+        </is>
+      </c>
+      <c r="C1877" t="n">
+        <v>123.41</v>
+      </c>
+    </row>
+    <row r="1878">
+      <c r="A1878" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:37:39</t>
+        </is>
+      </c>
+      <c r="B1878" t="inlineStr">
+        <is>
+          <t>DOGE_USDT</t>
+        </is>
+      </c>
+      <c r="C1878" t="n">
+        <v>0.12572</v>
+      </c>
+    </row>
+    <row r="1879">
+      <c r="A1879" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:37:53</t>
+        </is>
+      </c>
+      <c r="B1879" t="inlineStr">
+        <is>
+          <t>BTC_USDT</t>
+        </is>
+      </c>
+      <c r="C1879" t="n">
+        <v>89068.8</v>
+      </c>
+    </row>
+    <row r="1880">
+      <c r="A1880" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:37:53</t>
+        </is>
+      </c>
+      <c r="B1880" t="inlineStr">
+        <is>
+          <t>ETH_USDT</t>
+        </is>
+      </c>
+      <c r="C1880" t="n">
+        <v>2974.46</v>
+      </c>
+    </row>
+    <row r="1881">
+      <c r="A1881" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:37:53</t>
+        </is>
+      </c>
+      <c r="B1881" t="inlineStr">
+        <is>
+          <t>SOL_USDT</t>
+        </is>
+      </c>
+      <c r="C1881" t="n">
+        <v>123.43</v>
+      </c>
+    </row>
+    <row r="1882">
+      <c r="A1882" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:37:53</t>
+        </is>
+      </c>
+      <c r="B1882" t="inlineStr">
+        <is>
+          <t>DOGE_USDT</t>
+        </is>
+      </c>
+      <c r="C1882" t="n">
+        <v>0.12574</v>
+      </c>
+    </row>
+    <row r="1883">
+      <c r="A1883" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:38:07</t>
+        </is>
+      </c>
+      <c r="B1883" t="inlineStr">
+        <is>
+          <t>BTC_USDT</t>
+        </is>
+      </c>
+      <c r="C1883" t="n">
+        <v>89093.5</v>
+      </c>
+    </row>
+    <row r="1884">
+      <c r="A1884" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:38:07</t>
+        </is>
+      </c>
+      <c r="B1884" t="inlineStr">
+        <is>
+          <t>ETH_USDT</t>
+        </is>
+      </c>
+      <c r="C1884" t="n">
+        <v>2975.24</v>
+      </c>
+    </row>
+    <row r="1885">
+      <c r="A1885" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:38:07</t>
+        </is>
+      </c>
+      <c r="B1885" t="inlineStr">
+        <is>
+          <t>SOL_USDT</t>
+        </is>
+      </c>
+      <c r="C1885" t="n">
+        <v>123.43</v>
+      </c>
+    </row>
+    <row r="1886">
+      <c r="A1886" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:38:07</t>
+        </is>
+      </c>
+      <c r="B1886" t="inlineStr">
+        <is>
+          <t>DOGE_USDT</t>
+        </is>
+      </c>
+      <c r="C1886" t="n">
+        <v>0.12574</v>
+      </c>
+    </row>
+    <row r="1887">
+      <c r="A1887" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:38:21</t>
+        </is>
+      </c>
+      <c r="B1887" t="inlineStr">
+        <is>
+          <t>BTC_USDT</t>
+        </is>
+      </c>
+      <c r="C1887" t="n">
+        <v>89093.5</v>
+      </c>
+    </row>
+    <row r="1888">
+      <c r="A1888" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:38:21</t>
+        </is>
+      </c>
+      <c r="B1888" t="inlineStr">
+        <is>
+          <t>ETH_USDT</t>
+        </is>
+      </c>
+      <c r="C1888" t="n">
+        <v>2975.24</v>
+      </c>
+    </row>
+    <row r="1889">
+      <c r="A1889" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:38:21</t>
+        </is>
+      </c>
+      <c r="B1889" t="inlineStr">
+        <is>
+          <t>SOL_USDT</t>
+        </is>
+      </c>
+      <c r="C1889" t="n">
+        <v>123.41</v>
+      </c>
+    </row>
+    <row r="1890">
+      <c r="A1890" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:38:21</t>
+        </is>
+      </c>
+      <c r="B1890" t="inlineStr">
+        <is>
+          <t>DOGE_USDT</t>
+        </is>
+      </c>
+      <c r="C1890" t="n">
+        <v>0.12573</v>
+      </c>
+    </row>
+    <row r="1891">
+      <c r="A1891" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:38:35</t>
+        </is>
+      </c>
+      <c r="B1891" t="inlineStr">
+        <is>
+          <t>BTC_USDT</t>
+        </is>
+      </c>
+      <c r="C1891" t="n">
+        <v>89093.5</v>
+      </c>
+    </row>
+    <row r="1892">
+      <c r="A1892" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:38:35</t>
+        </is>
+      </c>
+      <c r="B1892" t="inlineStr">
+        <is>
+          <t>ETH_USDT</t>
+        </is>
+      </c>
+      <c r="C1892" t="n">
+        <v>2975.69</v>
+      </c>
+    </row>
+    <row r="1893">
+      <c r="A1893" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:38:35</t>
+        </is>
+      </c>
+      <c r="B1893" t="inlineStr">
+        <is>
+          <t>SOL_USDT</t>
+        </is>
+      </c>
+      <c r="C1893" t="n">
+        <v>123.43</v>
+      </c>
+    </row>
+    <row r="1894">
+      <c r="A1894" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:38:35</t>
+        </is>
+      </c>
+      <c r="B1894" t="inlineStr">
+        <is>
+          <t>DOGE_USDT</t>
+        </is>
+      </c>
+      <c r="C1894" t="n">
+        <v>0.12577</v>
+      </c>
+    </row>
+    <row r="1895">
+      <c r="A1895" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:38:46</t>
+        </is>
+      </c>
+      <c r="B1895" t="inlineStr">
+        <is>
+          <t>BTC_USDT</t>
+        </is>
+      </c>
+      <c r="C1895" t="n">
+        <v>89093.5</v>
+      </c>
+    </row>
+    <row r="1896">
+      <c r="A1896" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:38:46</t>
+        </is>
+      </c>
+      <c r="B1896" t="inlineStr">
+        <is>
+          <t>ETH_USDT</t>
+        </is>
+      </c>
+      <c r="C1896" t="n">
+        <v>2975.68</v>
+      </c>
+    </row>
+    <row r="1897">
+      <c r="A1897" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:38:46</t>
+        </is>
+      </c>
+      <c r="B1897" t="inlineStr">
+        <is>
+          <t>SOL_USDT</t>
+        </is>
+      </c>
+      <c r="C1897" t="n">
+        <v>123.41</v>
+      </c>
+    </row>
+    <row r="1898">
+      <c r="A1898" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:38:46</t>
+        </is>
+      </c>
+      <c r="B1898" t="inlineStr">
+        <is>
+          <t>DOGE_USDT</t>
+        </is>
+      </c>
+      <c r="C1898" t="n">
+        <v>0.12577</v>
+      </c>
+    </row>
+    <row r="1899">
+      <c r="A1899" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:39:00</t>
+        </is>
+      </c>
+      <c r="B1899" t="inlineStr">
+        <is>
+          <t>BTC_USDT</t>
+        </is>
+      </c>
+      <c r="C1899" t="n">
+        <v>89101.39999999999</v>
+      </c>
+    </row>
+    <row r="1900">
+      <c r="A1900" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:39:00</t>
+        </is>
+      </c>
+      <c r="B1900" t="inlineStr">
+        <is>
+          <t>ETH_USDT</t>
+        </is>
+      </c>
+      <c r="C1900" t="n">
+        <v>2976.12</v>
+      </c>
+    </row>
+    <row r="1901">
+      <c r="A1901" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:39:00</t>
+        </is>
+      </c>
+      <c r="B1901" t="inlineStr">
+        <is>
+          <t>SOL_USDT</t>
+        </is>
+      </c>
+      <c r="C1901" t="n">
+        <v>123.48</v>
+      </c>
+    </row>
+    <row r="1902">
+      <c r="A1902" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:39:00</t>
+        </is>
+      </c>
+      <c r="B1902" t="inlineStr">
+        <is>
+          <t>DOGE_USDT</t>
+        </is>
+      </c>
+      <c r="C1902" t="n">
+        <v>0.12581</v>
+      </c>
+    </row>
+    <row r="1903">
+      <c r="A1903" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:39:14</t>
+        </is>
+      </c>
+      <c r="B1903" t="inlineStr">
+        <is>
+          <t>BTC_USDT</t>
+        </is>
+      </c>
+      <c r="C1903" t="n">
+        <v>89104</v>
+      </c>
+    </row>
+    <row r="1904">
+      <c r="A1904" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:39:14</t>
+        </is>
+      </c>
+      <c r="B1904" t="inlineStr">
+        <is>
+          <t>ETH_USDT</t>
+        </is>
+      </c>
+      <c r="C1904" t="n">
+        <v>2975.97</v>
+      </c>
+    </row>
+    <row r="1905">
+      <c r="A1905" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:39:14</t>
+        </is>
+      </c>
+      <c r="B1905" t="inlineStr">
+        <is>
+          <t>SOL_USDT</t>
+        </is>
+      </c>
+      <c r="C1905" t="n">
+        <v>123.39</v>
+      </c>
+    </row>
+    <row r="1906">
+      <c r="A1906" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:39:14</t>
+        </is>
+      </c>
+      <c r="B1906" t="inlineStr">
+        <is>
+          <t>DOGE_USDT</t>
+        </is>
+      </c>
+      <c r="C1906" t="n">
+        <v>0.12575</v>
+      </c>
+    </row>
+    <row r="1907">
+      <c r="A1907" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:39:28</t>
+        </is>
+      </c>
+      <c r="B1907" t="inlineStr">
+        <is>
+          <t>BTC_USDT</t>
+        </is>
+      </c>
+      <c r="C1907" t="n">
+        <v>89103.89999999999</v>
+      </c>
+    </row>
+    <row r="1908">
+      <c r="A1908" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:39:28</t>
+        </is>
+      </c>
+      <c r="B1908" t="inlineStr">
+        <is>
+          <t>ETH_USDT</t>
+        </is>
+      </c>
+      <c r="C1908" t="n">
+        <v>2975.98</v>
+      </c>
+    </row>
+    <row r="1909">
+      <c r="A1909" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:39:28</t>
+        </is>
+      </c>
+      <c r="B1909" t="inlineStr">
+        <is>
+          <t>SOL_USDT</t>
+        </is>
+      </c>
+      <c r="C1909" t="n">
+        <v>123.39</v>
+      </c>
+    </row>
+    <row r="1910">
+      <c r="A1910" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:39:28</t>
+        </is>
+      </c>
+      <c r="B1910" t="inlineStr">
+        <is>
+          <t>DOGE_USDT</t>
+        </is>
+      </c>
+      <c r="C1910" t="n">
+        <v>0.12576</v>
+      </c>
+    </row>
+    <row r="1911">
+      <c r="A1911" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:39:42</t>
+        </is>
+      </c>
+      <c r="B1911" t="inlineStr">
+        <is>
+          <t>BTC_USDT</t>
+        </is>
+      </c>
+      <c r="C1911" t="n">
+        <v>89138.39999999999</v>
+      </c>
+    </row>
+    <row r="1912">
+      <c r="A1912" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:39:42</t>
+        </is>
+      </c>
+      <c r="B1912" t="inlineStr">
+        <is>
+          <t>ETH_USDT</t>
+        </is>
+      </c>
+      <c r="C1912" t="n">
+        <v>2977.91</v>
+      </c>
+    </row>
+    <row r="1913">
+      <c r="A1913" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:39:42</t>
+        </is>
+      </c>
+      <c r="B1913" t="inlineStr">
+        <is>
+          <t>SOL_USDT</t>
+        </is>
+      </c>
+      <c r="C1913" t="n">
+        <v>123.53</v>
+      </c>
+    </row>
+    <row r="1914">
+      <c r="A1914" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:39:42</t>
+        </is>
+      </c>
+      <c r="B1914" t="inlineStr">
+        <is>
+          <t>DOGE_USDT</t>
+        </is>
+      </c>
+      <c r="C1914" t="n">
+        <v>0.12596</v>
+      </c>
+    </row>
+    <row r="1915">
+      <c r="A1915" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:39:56</t>
+        </is>
+      </c>
+      <c r="B1915" t="inlineStr">
+        <is>
+          <t>BTC_USDT</t>
+        </is>
+      </c>
+      <c r="C1915" t="n">
+        <v>89142</v>
+      </c>
+    </row>
+    <row r="1916">
+      <c r="A1916" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:39:56</t>
+        </is>
+      </c>
+      <c r="B1916" t="inlineStr">
+        <is>
+          <t>ETH_USDT</t>
+        </is>
+      </c>
+      <c r="C1916" t="n">
+        <v>2977.55</v>
+      </c>
+    </row>
+    <row r="1917">
+      <c r="A1917" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:39:56</t>
+        </is>
+      </c>
+      <c r="B1917" t="inlineStr">
+        <is>
+          <t>SOL_USDT</t>
+        </is>
+      </c>
+      <c r="C1917" t="n">
+        <v>123.52</v>
+      </c>
+    </row>
+    <row r="1918">
+      <c r="A1918" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:39:56</t>
+        </is>
+      </c>
+      <c r="B1918" t="inlineStr">
+        <is>
+          <t>DOGE_USDT</t>
+        </is>
+      </c>
+      <c r="C1918" t="n">
+        <v>0.12592</v>
+      </c>
+    </row>
+    <row r="1919">
+      <c r="A1919" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:40:10</t>
+        </is>
+      </c>
+      <c r="B1919" t="inlineStr">
+        <is>
+          <t>BTC_USDT</t>
+        </is>
+      </c>
+      <c r="C1919" t="n">
+        <v>89134.2</v>
+      </c>
+    </row>
+    <row r="1920">
+      <c r="A1920" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:40:10</t>
+        </is>
+      </c>
+      <c r="B1920" t="inlineStr">
+        <is>
+          <t>ETH_USDT</t>
+        </is>
+      </c>
+      <c r="C1920" t="n">
+        <v>2977.32</v>
+      </c>
+    </row>
+    <row r="1921">
+      <c r="A1921" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:40:10</t>
+        </is>
+      </c>
+      <c r="B1921" t="inlineStr">
+        <is>
+          <t>SOL_USDT</t>
+        </is>
+      </c>
+      <c r="C1921" t="n">
+        <v>123.53</v>
+      </c>
+    </row>
+    <row r="1922">
+      <c r="A1922" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:40:10</t>
+        </is>
+      </c>
+      <c r="B1922" t="inlineStr">
+        <is>
+          <t>DOGE_USDT</t>
+        </is>
+      </c>
+      <c r="C1922" t="n">
+        <v>0.12587</v>
+      </c>
+    </row>
+    <row r="1923">
+      <c r="A1923" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:40:24</t>
+        </is>
+      </c>
+      <c r="B1923" t="inlineStr">
+        <is>
+          <t>BTC_USDT</t>
+        </is>
+      </c>
+      <c r="C1923" t="n">
+        <v>89143.10000000001</v>
+      </c>
+    </row>
+    <row r="1924">
+      <c r="A1924" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:40:24</t>
+        </is>
+      </c>
+      <c r="B1924" t="inlineStr">
+        <is>
+          <t>ETH_USDT</t>
+        </is>
+      </c>
+      <c r="C1924" t="n">
+        <v>2978.11</v>
+      </c>
+    </row>
+    <row r="1925">
+      <c r="A1925" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:40:24</t>
+        </is>
+      </c>
+      <c r="B1925" t="inlineStr">
+        <is>
+          <t>SOL_USDT</t>
+        </is>
+      </c>
+      <c r="C1925" t="n">
+        <v>123.55</v>
+      </c>
+    </row>
+    <row r="1926">
+      <c r="A1926" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:40:24</t>
+        </is>
+      </c>
+      <c r="B1926" t="inlineStr">
+        <is>
+          <t>DOGE_USDT</t>
+        </is>
+      </c>
+      <c r="C1926" t="n">
+        <v>0.12594</v>
+      </c>
+    </row>
+    <row r="1927">
+      <c r="A1927" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:40:38</t>
+        </is>
+      </c>
+      <c r="B1927" t="inlineStr">
+        <is>
+          <t>BTC_USDT</t>
+        </is>
+      </c>
+      <c r="C1927" t="n">
+        <v>89166.89999999999</v>
+      </c>
+    </row>
+    <row r="1928">
+      <c r="A1928" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:40:38</t>
+        </is>
+      </c>
+      <c r="B1928" t="inlineStr">
+        <is>
+          <t>ETH_USDT</t>
+        </is>
+      </c>
+      <c r="C1928" t="n">
+        <v>2979.44</v>
+      </c>
+    </row>
+    <row r="1929">
+      <c r="A1929" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:40:38</t>
+        </is>
+      </c>
+      <c r="B1929" t="inlineStr">
+        <is>
+          <t>SOL_USDT</t>
+        </is>
+      </c>
+      <c r="C1929" t="n">
+        <v>123.61</v>
+      </c>
+    </row>
+    <row r="1930">
+      <c r="A1930" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:40:38</t>
+        </is>
+      </c>
+      <c r="B1930" t="inlineStr">
+        <is>
+          <t>DOGE_USDT</t>
+        </is>
+      </c>
+      <c r="C1930" t="n">
+        <v>0.12598</v>
+      </c>
+    </row>
+    <row r="1931">
+      <c r="A1931" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:40:52</t>
+        </is>
+      </c>
+      <c r="B1931" t="inlineStr">
+        <is>
+          <t>BTC_USDT</t>
+        </is>
+      </c>
+      <c r="C1931" t="n">
+        <v>89210.3</v>
+      </c>
+    </row>
+    <row r="1932">
+      <c r="A1932" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:40:52</t>
+        </is>
+      </c>
+      <c r="B1932" t="inlineStr">
+        <is>
+          <t>ETH_USDT</t>
+        </is>
+      </c>
+      <c r="C1932" t="n">
+        <v>2981.29</v>
+      </c>
+    </row>
+    <row r="1933">
+      <c r="A1933" t="inlineStr">
+        <is>
+          <t>2025-12-26 14:40:52</t>
+        </is>
+      </c>
+      <c r="B1933" t="inlineStr">
+        <is>
+          <t>DOGE_USDT</t>
+        </is>
+      </c>
+      <c r="C1933" t="n">
+        <v>0.12602</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/全币种监控表.xlsx
+++ b/全币种监控表.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1933"/>
+  <dimension ref="A1:C1937"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29430,6 +29430,66 @@
         <v>0.12602</v>
       </c>
     </row>
+    <row r="1934">
+      <c r="A1934" t="inlineStr">
+        <is>
+          <t>2025-12-26 08:43:07</t>
+        </is>
+      </c>
+      <c r="B1934" t="inlineStr">
+        <is>
+          <t>BTC_USDT</t>
+        </is>
+      </c>
+      <c r="C1934" t="n">
+        <v>88634.2</v>
+      </c>
+    </row>
+    <row r="1935">
+      <c r="A1935" t="inlineStr">
+        <is>
+          <t>2025-12-26 08:43:07</t>
+        </is>
+      </c>
+      <c r="B1935" t="inlineStr">
+        <is>
+          <t>ETH_USDT</t>
+        </is>
+      </c>
+      <c r="C1935" t="n">
+        <v>2959.99</v>
+      </c>
+    </row>
+    <row r="1936">
+      <c r="A1936" t="inlineStr">
+        <is>
+          <t>2025-12-26 08:43:07</t>
+        </is>
+      </c>
+      <c r="B1936" t="inlineStr">
+        <is>
+          <t>SOL_USDT</t>
+        </is>
+      </c>
+      <c r="C1936" t="n">
+        <v>122.38</v>
+      </c>
+    </row>
+    <row r="1937">
+      <c r="A1937" t="inlineStr">
+        <is>
+          <t>2025-12-26 08:43:07</t>
+        </is>
+      </c>
+      <c r="B1937" t="inlineStr">
+        <is>
+          <t>DOGE_USDT</t>
+        </is>
+      </c>
+      <c r="C1937" t="n">
+        <v>0.12562</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/全币种监控表.xlsx
+++ b/全币种监控表.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1937"/>
+  <dimension ref="A1:C1941"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29490,6 +29490,66 @@
         <v>0.12562</v>
       </c>
     </row>
+    <row r="1938">
+      <c r="A1938" t="inlineStr">
+        <is>
+          <t>2025-12-26 08:44:18</t>
+        </is>
+      </c>
+      <c r="B1938" t="inlineStr">
+        <is>
+          <t>BTC_USDT</t>
+        </is>
+      </c>
+      <c r="C1938" t="n">
+        <v>88634.3</v>
+      </c>
+    </row>
+    <row r="1939">
+      <c r="A1939" t="inlineStr">
+        <is>
+          <t>2025-12-26 08:44:18</t>
+        </is>
+      </c>
+      <c r="B1939" t="inlineStr">
+        <is>
+          <t>ETH_USDT</t>
+        </is>
+      </c>
+      <c r="C1939" t="n">
+        <v>2959.35</v>
+      </c>
+    </row>
+    <row r="1940">
+      <c r="A1940" t="inlineStr">
+        <is>
+          <t>2025-12-26 08:44:18</t>
+        </is>
+      </c>
+      <c r="B1940" t="inlineStr">
+        <is>
+          <t>SOL_USDT</t>
+        </is>
+      </c>
+      <c r="C1940" t="n">
+        <v>122.39</v>
+      </c>
+    </row>
+    <row r="1941">
+      <c r="A1941" t="inlineStr">
+        <is>
+          <t>2025-12-26 08:44:18</t>
+        </is>
+      </c>
+      <c r="B1941" t="inlineStr">
+        <is>
+          <t>DOGE_USDT</t>
+        </is>
+      </c>
+      <c r="C1941" t="n">
+        <v>0.12559</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/全币种监控表.xlsx
+++ b/全币种监控表.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1941"/>
+  <dimension ref="A1:C1945"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29550,6 +29550,66 @@
         <v>0.12559</v>
       </c>
     </row>
+    <row r="1942">
+      <c r="A1942" t="inlineStr">
+        <is>
+          <t>2025-12-26 09:15:53</t>
+        </is>
+      </c>
+      <c r="B1942" t="inlineStr">
+        <is>
+          <t>BTC_USDT</t>
+        </is>
+      </c>
+      <c r="C1942" t="n">
+        <v>88695.10000000001</v>
+      </c>
+    </row>
+    <row r="1943">
+      <c r="A1943" t="inlineStr">
+        <is>
+          <t>2025-12-26 09:15:53</t>
+        </is>
+      </c>
+      <c r="B1943" t="inlineStr">
+        <is>
+          <t>ETH_USDT</t>
+        </is>
+      </c>
+      <c r="C1943" t="n">
+        <v>2964.55</v>
+      </c>
+    </row>
+    <row r="1944">
+      <c r="A1944" t="inlineStr">
+        <is>
+          <t>2025-12-26 09:15:53</t>
+        </is>
+      </c>
+      <c r="B1944" t="inlineStr">
+        <is>
+          <t>SOL_USDT</t>
+        </is>
+      </c>
+      <c r="C1944" t="n">
+        <v>122.59</v>
+      </c>
+    </row>
+    <row r="1945">
+      <c r="A1945" t="inlineStr">
+        <is>
+          <t>2025-12-26 09:15:53</t>
+        </is>
+      </c>
+      <c r="B1945" t="inlineStr">
+        <is>
+          <t>DOGE_USDT</t>
+        </is>
+      </c>
+      <c r="C1945" t="n">
+        <v>0.1256</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/全币种监控表.xlsx
+++ b/全币种监控表.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1945"/>
+  <dimension ref="A1:C1949"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29610,6 +29610,66 @@
         <v>0.1256</v>
       </c>
     </row>
+    <row r="1946">
+      <c r="A1946" t="inlineStr">
+        <is>
+          <t>2025-12-26 09:19:32</t>
+        </is>
+      </c>
+      <c r="B1946" t="inlineStr">
+        <is>
+          <t>BTC_USDT</t>
+        </is>
+      </c>
+      <c r="C1946" t="n">
+        <v>88692</v>
+      </c>
+    </row>
+    <row r="1947">
+      <c r="A1947" t="inlineStr">
+        <is>
+          <t>2025-12-26 09:19:32</t>
+        </is>
+      </c>
+      <c r="B1947" t="inlineStr">
+        <is>
+          <t>ETH_USDT</t>
+        </is>
+      </c>
+      <c r="C1947" t="n">
+        <v>2965.68</v>
+      </c>
+    </row>
+    <row r="1948">
+      <c r="A1948" t="inlineStr">
+        <is>
+          <t>2025-12-26 09:19:32</t>
+        </is>
+      </c>
+      <c r="B1948" t="inlineStr">
+        <is>
+          <t>SOL_USDT</t>
+        </is>
+      </c>
+      <c r="C1948" t="n">
+        <v>122.67</v>
+      </c>
+    </row>
+    <row r="1949">
+      <c r="A1949" t="inlineStr">
+        <is>
+          <t>2025-12-26 09:19:32</t>
+        </is>
+      </c>
+      <c r="B1949" t="inlineStr">
+        <is>
+          <t>DOGE_USDT</t>
+        </is>
+      </c>
+      <c r="C1949" t="n">
+        <v>0.12559</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
